--- a/副本AutoCore处理规范V0_4.xlsx
+++ b/副本AutoCore处理规范V0_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="音频处理规范" sheetId="7" r:id="rId1"/>
@@ -781,127 +781,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AppTips</t>
+  </si>
+  <si>
+    <t>CarPlayVoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLifeVoice</t>
+  </si>
+  <si>
+    <t>CarLifeVoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarPlayTel</t>
+  </si>
+  <si>
+    <t>CarPlayTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLifeTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLifeTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VerSysTips</t>
-  </si>
-  <si>
-    <t>AppTips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThirdMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarPlayMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarPlayMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLifeMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLifeMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  瞎搞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对CarPlayMusic后入fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarLifeVoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对CarPlayVoice、CarLifeVoice后入fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有合适的对应项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CarPlayVoice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CarLifeVoice</t>
-  </si>
-  <si>
-    <t>CarLifeVoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarPlayTel</t>
-  </si>
-  <si>
-    <t>CarPlayTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarLifeTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarLifeTel</t>
+    <t>打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对AppTips后入fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VerSysTips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BtTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BtMusic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThirdMusic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarPlayMusic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarPlayMusic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarLifeMusic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarLifeMusic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  瞎搞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对CarPlayMusic后入fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarLifeVoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对CarPlayVoice、CarLifeVoice后入fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有合适的对应项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarPlayVoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAVI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对AppTips后入fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -909,6 +910,7 @@
 2 APPTips和VerSysTips的播报 状态还原
 3 app的焦点请求流程
 4 电话抢占媒体声音结束后,还原媒体声音播放
+5 Tel和Reverse和VerSysTips必须要监控状态解锁
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1805,57 +1807,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1865,61 +1924,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,83 +1957,56 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2043,7 +2045,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2105,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2154,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2491,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Q61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F59" sqref="D53:F59"/>
     </sheetView>
   </sheetViews>
@@ -2520,95 +2522,95 @@
       <c r="B2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:17" s="31" customFormat="1" ht="14.25">
       <c r="B3" s="28"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="2:17" s="31" customFormat="1" ht="14.25">
       <c r="B4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" s="3" customFormat="1">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="13" t="s">
         <v>84</v>
       </c>
@@ -2653,8 +2655,8 @@
       </c>
     </row>
     <row r="6" spans="2:17" s="3" customFormat="1">
-      <c r="B6" s="61"/>
-      <c r="C6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="10" t="s">
         <v>83</v>
       </c>
@@ -2699,13 +2701,13 @@
       </c>
     </row>
     <row r="7" spans="2:17" s="3" customFormat="1">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="57" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="14" t="s">
         <v>65</v>
       </c>
@@ -2747,11 +2749,11 @@
       </c>
     </row>
     <row r="8" spans="2:17" s="3" customFormat="1">
-      <c r="B8" s="61"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
@@ -2793,7 +2795,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" s="3" customFormat="1">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="57" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -2802,7 +2804,7 @@
       <c r="D9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="13" t="s">
         <v>63</v>
       </c>
@@ -2841,14 +2843,14 @@
       </c>
     </row>
     <row r="10" spans="2:17" s="3" customFormat="1">
-      <c r="B10" s="61"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="10" t="s">
         <v>62</v>
       </c>
@@ -2887,7 +2889,7 @@
       </c>
     </row>
     <row r="11" spans="2:17" s="3" customFormat="1">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -2899,7 +2901,7 @@
       <c r="E11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="13" t="s">
         <v>63</v>
       </c>
@@ -2935,7 +2937,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" s="3" customFormat="1">
-      <c r="B12" s="61"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -2945,7 +2947,7 @@
       <c r="E12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="10" t="s">
         <v>62</v>
       </c>
@@ -2981,7 +2983,7 @@
       </c>
     </row>
     <row r="13" spans="2:17" s="3" customFormat="1">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2996,7 +2998,7 @@
       <c r="F13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="13" t="s">
         <v>63</v>
       </c>
@@ -3029,7 +3031,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" s="3" customFormat="1">
-      <c r="B14" s="61"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="9" t="s">
         <v>62</v>
       </c>
@@ -3042,7 +3044,7 @@
       <c r="F14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="10" t="s">
         <v>62</v>
       </c>
@@ -3075,7 +3077,7 @@
       </c>
     </row>
     <row r="15" spans="2:17" s="3" customFormat="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="57" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -3093,7 +3095,7 @@
       <c r="G15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="14" t="s">
         <v>65</v>
       </c>
@@ -3123,7 +3125,7 @@
       </c>
     </row>
     <row r="16" spans="2:17" s="3" customFormat="1">
-      <c r="B16" s="61"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="9" t="s">
         <v>62</v>
       </c>
@@ -3139,7 +3141,7 @@
       <c r="G16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="11" t="s">
         <v>66</v>
       </c>
@@ -3169,7 +3171,7 @@
       </c>
     </row>
     <row r="17" spans="2:17" s="3" customFormat="1">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="57" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -3190,7 +3192,7 @@
       <c r="H17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="15" t="s">
         <v>61</v>
       </c>
@@ -3217,7 +3219,7 @@
       </c>
     </row>
     <row r="18" spans="2:17" s="3" customFormat="1">
-      <c r="B18" s="61"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="9" t="s">
         <v>62</v>
       </c>
@@ -3236,7 +3238,7 @@
       <c r="H18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="10" t="s">
         <v>62</v>
       </c>
@@ -3263,8 +3265,8 @@
       </c>
     </row>
     <row r="19" spans="2:17" s="3" customFormat="1">
-      <c r="B19" s="61" t="s">
-        <v>196</v>
+      <c r="B19" s="57" t="s">
+        <v>195</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>61</v>
@@ -3287,7 +3289,7 @@
       <c r="I19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="59"/>
+      <c r="J19" s="58"/>
       <c r="K19" s="18" t="s">
         <v>154</v>
       </c>
@@ -3311,7 +3313,7 @@
       </c>
     </row>
     <row r="20" spans="2:17" s="3" customFormat="1">
-      <c r="B20" s="61"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
@@ -3333,7 +3335,7 @@
       <c r="I20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="60"/>
+      <c r="J20" s="59"/>
       <c r="K20" s="10" t="s">
         <v>62</v>
       </c>
@@ -3357,7 +3359,7 @@
       </c>
     </row>
     <row r="21" spans="2:17" s="3" customFormat="1">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="57" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -3384,7 +3386,7 @@
       <c r="J21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="59"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="14" t="s">
         <v>65</v>
       </c>
@@ -3405,7 +3407,7 @@
       </c>
     </row>
     <row r="22" spans="2:17" s="3" customFormat="1">
-      <c r="B22" s="61"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="9" t="s">
         <v>62</v>
       </c>
@@ -3430,7 +3432,7 @@
       <c r="J22" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="60"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="11" t="s">
         <v>66</v>
       </c>
@@ -3451,7 +3453,7 @@
       </c>
     </row>
     <row r="23" spans="2:17" s="3" customFormat="1">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -3481,7 +3483,7 @@
       <c r="K23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="59"/>
+      <c r="L23" s="58"/>
       <c r="M23" s="15" t="s">
         <v>61</v>
       </c>
@@ -3499,7 +3501,7 @@
       </c>
     </row>
     <row r="24" spans="2:17" s="3" customFormat="1">
-      <c r="B24" s="61"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="9" t="s">
         <v>62</v>
       </c>
@@ -3527,7 +3529,7 @@
       <c r="K24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="60"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="10" t="s">
         <v>62</v>
       </c>
@@ -3545,7 +3547,7 @@
       </c>
     </row>
     <row r="25" spans="2:17" s="3" customFormat="1">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="57" t="s">
         <v>105</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -3578,7 +3580,7 @@
       <c r="L25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="59"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="14" t="s">
         <v>65</v>
       </c>
@@ -3593,7 +3595,7 @@
       </c>
     </row>
     <row r="26" spans="2:17" s="3" customFormat="1">
-      <c r="B26" s="61"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="9" t="s">
         <v>62</v>
       </c>
@@ -3624,7 +3626,7 @@
       <c r="L26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M26" s="60"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="11" t="s">
         <v>66</v>
       </c>
@@ -3639,7 +3641,7 @@
       </c>
     </row>
     <row r="27" spans="2:17" s="3" customFormat="1">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -3675,7 +3677,7 @@
       <c r="M27" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="59"/>
+      <c r="N27" s="58"/>
       <c r="O27" s="14" t="s">
         <v>65</v>
       </c>
@@ -3687,7 +3689,7 @@
       </c>
     </row>
     <row r="28" spans="2:17" s="3" customFormat="1">
-      <c r="B28" s="61"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="9" t="s">
         <v>62</v>
       </c>
@@ -3721,7 +3723,7 @@
       <c r="M28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="60"/>
+      <c r="N28" s="59"/>
       <c r="O28" s="10" t="s">
         <v>62</v>
       </c>
@@ -3733,7 +3735,7 @@
       </c>
     </row>
     <row r="29" spans="2:17" s="3" customFormat="1">
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -3772,7 +3774,7 @@
       <c r="N29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O29" s="59"/>
+      <c r="O29" s="58"/>
       <c r="P29" s="15" t="s">
         <v>61</v>
       </c>
@@ -3781,7 +3783,7 @@
       </c>
     </row>
     <row r="30" spans="2:17" s="3" customFormat="1">
-      <c r="B30" s="61"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="9" t="s">
         <v>62</v>
       </c>
@@ -3818,7 +3820,7 @@
       <c r="N30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O30" s="60"/>
+      <c r="O30" s="59"/>
       <c r="P30" s="10" t="s">
         <v>62</v>
       </c>
@@ -3827,7 +3829,7 @@
       </c>
     </row>
     <row r="31" spans="2:17" s="3" customFormat="1">
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="57" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -3869,13 +3871,13 @@
       <c r="O31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P31" s="59"/>
+      <c r="P31" s="58"/>
       <c r="Q31" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="2:17" s="3" customFormat="1">
-      <c r="B32" s="61"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="9" t="s">
         <v>62</v>
       </c>
@@ -3915,13 +3917,13 @@
       <c r="O32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="P32" s="60"/>
+      <c r="P32" s="59"/>
       <c r="Q32" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:17" s="3" customFormat="1">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -3966,10 +3968,10 @@
       <c r="P33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q33" s="57"/>
+      <c r="Q33" s="67"/>
     </row>
     <row r="34" spans="2:17" s="3" customFormat="1">
-      <c r="B34" s="62"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="24" t="s">
         <v>62</v>
       </c>
@@ -4012,7 +4014,7 @@
       <c r="P34" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="Q34" s="58"/>
+      <c r="Q34" s="68"/>
     </row>
     <row r="35" spans="2:17" ht="14.25" thickBot="1">
       <c r="B35" s="32"/>
@@ -4538,6 +4540,40 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="I2:I4"/>
@@ -4549,40 +4585,6 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4615,334 +4617,334 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="70" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="82" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B7" s="79"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B8" s="79"/>
-      <c r="C8" s="71" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="69" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B9" s="79"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B10" s="79"/>
-      <c r="C10" s="77" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="69" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="77" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="69" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B14" s="79"/>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="69" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B15" s="79"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B16" s="79"/>
-      <c r="C16" s="71" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H16" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="69" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B17" s="79"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B18" s="79"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="69" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B19" s="80"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="54"/>
@@ -5072,6 +5074,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -5088,56 +5140,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5170,17 +5172,17 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1">
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -5215,12 +5217,12 @@
       <c r="K5" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114" t="s">
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="114" t="s">
+      <c r="O5" s="102" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="2"/>
@@ -5237,407 +5239,407 @@
       <c r="I6" s="109"/>
       <c r="J6" s="111"/>
       <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="98" t="s">
+      <c r="C7" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="101" t="s">
+      <c r="H7" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="97">
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="106">
         <v>1</v>
       </c>
-      <c r="O7" s="117" t="s">
+      <c r="O7" s="107" t="s">
         <v>29</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="107"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="117"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="107"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="107"/>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="101" t="s">
+      <c r="C9" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116">
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="104">
         <v>2</v>
       </c>
-      <c r="O9" s="96" t="s">
+      <c r="O9" s="105" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="107"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="96"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="105"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="107"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="115"/>
+      <c r="B11" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="101" t="s">
+      <c r="C11" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="97">
+      <c r="N11" s="106">
         <v>3</v>
       </c>
-      <c r="O11" s="96" t="s">
+      <c r="O11" s="105" t="s">
         <v>30</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="107"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="101"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="96"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="105"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="107"/>
-      <c r="B13" s="104" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="98" t="s">
+      <c r="C13" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="101" t="s">
+      <c r="H13" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="97">
+      <c r="N13" s="106">
         <v>4</v>
       </c>
-      <c r="O13" s="96" t="s">
+      <c r="O13" s="105" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="107"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="101"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="96"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="105"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="107"/>
-      <c r="B15" s="104" t="s">
+      <c r="A15" s="115"/>
+      <c r="B15" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="98" t="s">
+      <c r="C15" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="101" t="s">
+      <c r="H15" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="97">
+      <c r="N15" s="106">
         <v>5</v>
       </c>
-      <c r="O15" s="96" t="s">
+      <c r="O15" s="105" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="107"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="101"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="96"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="105"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="107"/>
-      <c r="B17" s="104" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="98" t="s">
+      <c r="C17" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="101" t="s">
+      <c r="H17" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="97">
+      <c r="N17" s="106">
         <v>6</v>
       </c>
-      <c r="O17" s="96" t="s">
+      <c r="O17" s="105" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="107"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="101"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="96"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="96"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="105"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="107"/>
-      <c r="B19" s="104" t="s">
+      <c r="A19" s="115"/>
+      <c r="B19" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="98" t="s">
+      <c r="C19" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="98" t="s">
+      <c r="H19" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="101" t="s">
+      <c r="K19" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="5"/>
@@ -5646,52 +5648,52 @@
       <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="107"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="101"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="96"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="104" t="s">
+      <c r="A21" s="115"/>
+      <c r="B21" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="101" t="s">
+      <c r="C21" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L21" s="5"/>
@@ -5700,52 +5702,52 @@
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="107"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="101"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="96"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="104" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="101" t="s">
+      <c r="C23" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L23" s="5"/>
@@ -5754,52 +5756,52 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="107"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="101"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="96"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="107"/>
-      <c r="B25" s="104" t="s">
+      <c r="A25" s="115"/>
+      <c r="B25" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="101" t="s">
+      <c r="C25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L25" s="5"/>
@@ -5808,52 +5810,52 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="107"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="101"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="96"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="104" t="s">
+      <c r="A27" s="115"/>
+      <c r="B27" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="101" t="s">
+      <c r="C27" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L27" s="5"/>
@@ -5862,52 +5864,52 @@
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="101"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="96"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="104" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="101" t="s">
+      <c r="C29" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L29" s="5"/>
@@ -5916,52 +5918,52 @@
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="107"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="101"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="96"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="104" t="s">
+      <c r="A31" s="115"/>
+      <c r="B31" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="98" t="s">
+      <c r="C31" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="98" t="s">
+      <c r="G31" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="101" t="s">
+      <c r="H31" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="96" t="s">
         <v>40</v>
       </c>
       <c r="L31" s="5"/>
@@ -5970,181 +5972,298 @@
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="107"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="101"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="96"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="98" t="s">
+      <c r="D33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="98" t="s">
+      <c r="F33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="98" t="s">
+      <c r="G33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="98" t="s">
+      <c r="H33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="98" t="s">
+      <c r="I33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="98" t="s">
+      <c r="J33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="100" t="s">
+      <c r="K33" s="117" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="105"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="100"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="117"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="98" t="s">
+      <c r="D35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="98" t="s">
+      <c r="F35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="98" t="s">
+      <c r="G35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="98" t="s">
+      <c r="H35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="98" t="s">
+      <c r="I35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="98" t="s">
+      <c r="J35" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="100" t="s">
+      <c r="K35" s="117" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="105"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="100"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="117"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="101" t="s">
+      <c r="C37" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="96" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="105"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="101"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A7:A32"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="I5:I6"/>
@@ -6169,148 +6288,31 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A7:A32"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6369,8 +6371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J40" sqref="A34:J40"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6382,156 +6384,156 @@
       <c r="A1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="63" t="s">
+      <c r="L1" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="63" t="s">
+      <c r="N1" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="94" t="s">
+      <c r="U1" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="V1" s="94" t="s">
+      <c r="V1" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="W1" s="86" t="s">
+      <c r="W1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="86" t="s">
+      <c r="X1" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="70" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1">
       <c r="A2" s="28"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
     </row>
     <row r="3" spans="1:25" ht="15" thickBot="1">
       <c r="A3" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="78" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="71" t="s">
+      <c r="R3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="81" t="s">
+      <c r="S3" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="U3" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="V3" s="82" t="s">
+      <c r="T3" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="U3" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="V3" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="82" t="s">
+      <c r="W3" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="121" t="s">
+      <c r="X3" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="Y3" s="85" t="s">
+      <c r="Y3" s="82" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="13" t="s">
         <v>63</v>
       </c>
@@ -6574,19 +6576,19 @@
       <c r="P4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="69"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
@@ -6629,40 +6631,40 @@
       <c r="P5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="71" t="s">
+      <c r="Q5" s="86"/>
+      <c r="R5" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="S5" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="T5" s="119" t="s">
+      <c r="T5" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="V5" s="120" t="s">
+      <c r="V5" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="W5" s="69" t="s">
+      <c r="W5" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="Y5" s="70" t="s">
+      <c r="Y5" s="69" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="57" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="14" t="s">
         <v>65</v>
       </c>
@@ -6702,22 +6704,22 @@
       <c r="P6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="70"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="69"/>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="11" t="s">
         <v>66</v>
       </c>
@@ -6757,34 +6759,34 @@
       <c r="P7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="77" t="s">
+      <c r="Q7" s="86"/>
+      <c r="R7" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="S7" s="83" t="s">
+      <c r="S7" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="T7" s="84" t="s">
+      <c r="T7" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="U7" s="119" t="s">
+      <c r="U7" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="69" t="s">
+      <c r="V7" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="W7" s="69" t="s">
+      <c r="W7" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="X7" s="120" t="s">
+      <c r="X7" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="70" t="s">
+      <c r="Y7" s="69" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -6793,7 +6795,7 @@
       <c r="C8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="13" t="s">
         <v>63</v>
       </c>
@@ -6830,25 +6832,25 @@
       <c r="P8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="70"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="69"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="10" t="s">
         <v>62</v>
       </c>
@@ -6885,34 +6887,34 @@
       <c r="P9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="77" t="s">
+      <c r="Q9" s="86"/>
+      <c r="R9" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="S9" s="73" t="s">
+      <c r="S9" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="T9" s="69" t="s">
+      <c r="T9" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="U9" s="69" t="s">
+      <c r="U9" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="V9" s="119" t="s">
-        <v>191</v>
-      </c>
-      <c r="W9" s="69" t="s">
+      <c r="V9" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="W9" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="X9" s="69" t="s">
+      <c r="X9" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="Y9" s="70" t="s">
+      <c r="Y9" s="69" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -6924,7 +6926,7 @@
       <c r="D10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="13" t="s">
         <v>63</v>
       </c>
@@ -6958,18 +6960,18 @@
       <c r="P10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="70"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="69"/>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="61"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="9" t="s">
         <v>62</v>
       </c>
@@ -6979,7 +6981,7 @@
       <c r="D11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="10" t="s">
         <v>62</v>
       </c>
@@ -7013,34 +7015,34 @@
       <c r="P11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="71" t="s">
+      <c r="Q11" s="86"/>
+      <c r="R11" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="73" t="s">
+      <c r="S11" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="T11" s="69" t="s">
+      <c r="T11" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="U11" s="69" t="s">
+      <c r="U11" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="V11" s="69" t="s">
+      <c r="V11" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="W11" s="69" t="s">
+      <c r="W11" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="69" t="s">
+      <c r="X11" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="Y11" s="70" t="s">
+      <c r="Y11" s="69" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="57" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -7055,7 +7057,7 @@
       <c r="E12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="13" t="s">
         <v>63</v>
       </c>
@@ -7086,18 +7088,18 @@
       <c r="P12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="70"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="69"/>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="9" t="s">
         <v>62</v>
       </c>
@@ -7110,7 +7112,7 @@
       <c r="E13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="10" t="s">
         <v>62</v>
       </c>
@@ -7141,34 +7143,34 @@
       <c r="P13" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="71" t="s">
+      <c r="Q13" s="86"/>
+      <c r="R13" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="S13" s="73" t="s">
+      <c r="S13" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="T13" s="69" t="s">
+      <c r="T13" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="U13" s="119" t="s">
+      <c r="U13" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="69" t="s">
+      <c r="V13" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="W13" s="69" t="s">
+      <c r="W13" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="X13" s="69" t="s">
+      <c r="X13" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="70" t="s">
+      <c r="Y13" s="69" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -7186,7 +7188,7 @@
       <c r="F14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="59"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="14" t="s">
         <v>65</v>
       </c>
@@ -7214,18 +7216,18 @@
       <c r="P14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="70"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="69"/>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="61"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
@@ -7241,7 +7243,7 @@
       <c r="F15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="11" t="s">
         <v>66</v>
       </c>
@@ -7269,34 +7271,34 @@
       <c r="P15" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="71" t="s">
+      <c r="Q15" s="86"/>
+      <c r="R15" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="S15" s="73" t="s">
+      <c r="S15" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="T15" s="69" t="s">
+      <c r="T15" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="U15" s="69" t="s">
+      <c r="U15" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="V15" s="69" t="s">
+      <c r="V15" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="W15" s="69" t="s">
+      <c r="W15" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="X15" s="69" t="s">
+      <c r="X15" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="Y15" s="70" t="s">
+      <c r="Y15" s="69" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="57" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -7317,7 +7319,7 @@
       <c r="G16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="15" t="s">
         <v>61</v>
       </c>
@@ -7342,18 +7344,18 @@
       <c r="P16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="76"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="95"/>
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
@@ -7372,7 +7374,7 @@
       <c r="G17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="60"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="10" t="s">
         <v>62</v>
       </c>
@@ -7399,7 +7401,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="57" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -7423,7 +7425,7 @@
       <c r="H18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="18" t="s">
         <v>64</v>
       </c>
@@ -7447,7 +7449,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="9" t="s">
         <v>62</v>
       </c>
@@ -7469,7 +7471,7 @@
       <c r="H19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="60"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="10" t="s">
         <v>62</v>
       </c>
@@ -7493,7 +7495,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="57" t="s">
         <v>108</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -7520,7 +7522,7 @@
       <c r="I20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="59"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="14" t="s">
         <v>65</v>
       </c>
@@ -7540,14 +7542,14 @@
         <v>65</v>
       </c>
       <c r="Q20" t="s">
+        <v>186</v>
+      </c>
+      <c r="R20" t="s">
         <v>187</v>
       </c>
-      <c r="R20" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="9" t="s">
         <v>62</v>
       </c>
@@ -7572,7 +7574,7 @@
       <c r="I21" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="60"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="11" t="s">
         <v>66</v>
       </c>
@@ -7592,14 +7594,14 @@
         <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="57" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -7629,7 +7631,7 @@
       <c r="J22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="15" t="s">
         <v>61</v>
       </c>
@@ -7647,7 +7649,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="9" t="s">
         <v>62</v>
       </c>
@@ -7675,7 +7677,7 @@
       <c r="J23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="60"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="10" t="s">
         <v>62</v>
       </c>
@@ -7693,8 +7695,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A24" s="61" t="s">
-        <v>193</v>
+      <c r="A24" s="57" t="s">
+        <v>192</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>61</v>
@@ -7726,7 +7728,7 @@
       <c r="K24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="59"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="14" t="s">
         <v>65</v>
       </c>
@@ -7741,7 +7743,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
@@ -7772,7 +7774,7 @@
       <c r="K25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="60"/>
+      <c r="L25" s="59"/>
       <c r="M25" s="11" t="s">
         <v>66</v>
       </c>
@@ -7787,7 +7789,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -7823,7 +7825,7 @@
       <c r="L26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="59"/>
+      <c r="M26" s="58"/>
       <c r="N26" s="14" t="s">
         <v>65</v>
       </c>
@@ -7835,7 +7837,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="9" t="s">
         <v>62</v>
       </c>
@@ -7869,7 +7871,7 @@
       <c r="L27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="60"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="10" t="s">
         <v>62</v>
       </c>
@@ -7881,7 +7883,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="57" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -7920,7 +7922,7 @@
       <c r="M28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="59"/>
+      <c r="N28" s="58"/>
       <c r="O28" s="15" t="s">
         <v>61</v>
       </c>
@@ -7929,7 +7931,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A29" s="61"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="9" t="s">
         <v>62</v>
       </c>
@@ -7966,7 +7968,7 @@
       <c r="M29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="60"/>
+      <c r="N29" s="59"/>
       <c r="O29" s="10" t="s">
         <v>62</v>
       </c>
@@ -7975,7 +7977,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -8017,13 +8019,13 @@
       <c r="N30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O30" s="59"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="9" t="s">
         <v>62</v>
       </c>
@@ -8063,13 +8065,13 @@
       <c r="N31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O31" s="60"/>
+      <c r="O31" s="59"/>
       <c r="P31" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="57" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -8114,10 +8116,10 @@
       <c r="O32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="57"/>
+      <c r="P32" s="67"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="62"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="24" t="s">
         <v>62</v>
       </c>
@@ -8160,7 +8162,7 @@
       <c r="O33" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="58"/>
+      <c r="P33" s="68"/>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="7" t="s">
@@ -8180,16 +8182,16 @@
         <v>167</v>
       </c>
       <c r="D35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" t="s">
         <v>179</v>
       </c>
-      <c r="E35" t="s">
-        <v>180</v>
-      </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -8201,10 +8203,10 @@
         <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -8213,10 +8215,10 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G37" t="s">
         <v>54</v>
@@ -8227,16 +8229,16 @@
         <v>164</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="Q38" s="123" t="s">
+      <c r="Q38" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="119"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="119"/>
+      <c r="W38" s="119"/>
+      <c r="X38" s="119"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="7" t="s">
@@ -8246,14 +8248,14 @@
       <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="119"/>
+      <c r="X39" s="119"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="7" t="s">
@@ -8263,144 +8265,235 @@
       <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
-      <c r="W40" s="122"/>
-      <c r="X40" s="122"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="119"/>
+      <c r="X40" s="119"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="Q41" s="122"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="122"/>
-      <c r="W41" s="122"/>
-      <c r="X41" s="122"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="119"/>
+      <c r="U41" s="119"/>
+      <c r="V41" s="119"/>
+      <c r="W41" s="119"/>
+      <c r="X41" s="119"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="118" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
+        <v>189</v>
+      </c>
+      <c r="C42" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="119"/>
+      <c r="U42" s="119"/>
+      <c r="V42" s="119"/>
+      <c r="W42" s="119"/>
+      <c r="X42" s="119"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
+      <c r="C43" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="119"/>
+      <c r="T43" s="119"/>
+      <c r="U43" s="119"/>
+      <c r="V43" s="119"/>
+      <c r="W43" s="119"/>
+      <c r="X43" s="119"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="122"/>
-      <c r="W44" s="122"/>
-      <c r="X44" s="122"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="119"/>
+      <c r="T44" s="119"/>
+      <c r="U44" s="119"/>
+      <c r="V44" s="119"/>
+      <c r="W44" s="119"/>
+      <c r="X44" s="119"/>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="118" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="122"/>
-      <c r="S45" s="122"/>
-      <c r="T45" s="122"/>
-      <c r="U45" s="122"/>
-      <c r="V45" s="122"/>
-      <c r="W45" s="122"/>
-      <c r="X45" s="122"/>
+      <c r="C45" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="123"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="119"/>
+      <c r="T45" s="119"/>
+      <c r="U45" s="119"/>
+      <c r="V45" s="119"/>
+      <c r="W45" s="119"/>
+      <c r="X45" s="119"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="122"/>
-      <c r="T46" s="122"/>
-      <c r="U46" s="122"/>
-      <c r="V46" s="122"/>
-      <c r="W46" s="122"/>
-      <c r="X46" s="122"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="119"/>
+      <c r="T46" s="119"/>
+      <c r="U46" s="119"/>
+      <c r="V46" s="119"/>
+      <c r="W46" s="119"/>
+      <c r="X46" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="C44:M44"/>
+    <mergeCell ref="C45:M45"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="Q3:Q16"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="Q38:X46"/>
     <mergeCell ref="A8:A9"/>
@@ -8425,97 +8518,6 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="C44:M44"/>
-    <mergeCell ref="C45:M45"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="Q3:Q16"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
